--- a/storage/excel/test1.xlsx
+++ b/storage/excel/test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\daiyas\workspace\daiyas\storage\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE00476-3E09-4CE1-8D44-19FAA781A632}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6DA085-15FE-4F1C-8758-B0CB91261A53}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="26505" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="19062500F" sheetId="5" r:id="rId1"/>
@@ -450,11 +450,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#,##0;&quot;▲ &quot;#,##0"/>
     <numFmt numFmtId="177" formatCode="#,##0.0;[Red]\-#,##0.0"/>
     <numFmt numFmtId="178" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="179" formatCode="&quot;令和1年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="180" formatCode="&quot;@&quot;#.##0"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -959,7 +960,7 @@
     <xf numFmtId="38" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1021,9 +1022,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1174,6 +1172,33 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1231,32 +1256,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2433,7 +2440,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
@@ -2450,16 +2457,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="15">
-      <c r="A1" s="91">
+      <c r="A1" s="71">
         <v>43641</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2"/>
@@ -2558,7 +2565,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="55"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="7"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -2566,11 +2573,11 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="66" t="s">
+      <c r="B12" s="73"/>
+      <c r="C12" s="65" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="8"/>
@@ -2590,10 +2597,10 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="27.95" customHeight="1">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="95"/>
+      <c r="B14" s="75"/>
       <c r="C14" s="12">
         <f>H41</f>
         <v>0</v>
@@ -2627,11 +2634,11 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1">
-      <c r="A17" s="96"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -2730,11 +2737,11 @@
       <c r="A27" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="97" t="s">
+      <c r="B27" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="98"/>
-      <c r="D27" s="99"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="79"/>
       <c r="E27" s="17" t="s">
         <v>6</v>
       </c>
@@ -2748,354 +2755,349 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="22" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A28" s="23"/>
-      <c r="B28" s="79" t="s">
+    <row r="28" spans="1:8" s="21" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A28" s="22"/>
+      <c r="B28" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="80"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="70"/>
-    </row>
-    <row r="29" spans="1:8" s="22" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A29" s="26" t="s">
+      <c r="C28" s="88"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="69"/>
+    </row>
+    <row r="29" spans="1:8" s="21" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A29" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="85" t="s">
+      <c r="B29" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="86"/>
-      <c r="D29" s="87"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="95"/>
       <c r="E29" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="63">
+      <c r="F29" s="62">
         <v>1</v>
       </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="60" t="str">
+      <c r="G29" s="99"/>
+      <c r="H29" s="59" t="str">
         <f>IF(OR(ISBLANK(F29),ISBLANK(G29)), "", F29*G29)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:8" s="22" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A30" s="23" t="s">
+    <row r="30" spans="1:8" s="21" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A30" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="88" t="s">
+      <c r="B30" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="89"/>
-      <c r="D30" s="90"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="98"/>
       <c r="E30" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="64">
+      <c r="F30" s="63">
         <v>1</v>
       </c>
-      <c r="G30" s="24"/>
-      <c r="H30" s="60" t="str">
+      <c r="G30" s="100"/>
+      <c r="H30" s="59" t="str">
         <f t="shared" ref="H30:H31" si="0">IF(OR(ISBLANK(F30),ISBLANK(G30)), "", F30*G30)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:8" s="22" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A31" s="23" t="s">
+    <row r="31" spans="1:8" s="21" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A31" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="88" t="s">
+      <c r="B31" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="89"/>
-      <c r="D31" s="90"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="98"/>
       <c r="E31" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="64">
+      <c r="F31" s="63">
         <v>1</v>
       </c>
-      <c r="G31" s="24"/>
-      <c r="H31" s="60" t="str">
+      <c r="G31" s="100"/>
+      <c r="H31" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:8" s="22" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A32" s="23"/>
-      <c r="B32" s="88"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="90"/>
+    <row r="32" spans="1:8" s="21" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A32" s="22"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="98"/>
       <c r="E32" s="20"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="60"/>
-    </row>
-    <row r="33" spans="1:8" s="25" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A33" s="26"/>
-      <c r="B33" s="72" t="s">
+      <c r="F32" s="63"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="59"/>
+    </row>
+    <row r="33" spans="1:8" s="24" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A33" s="25"/>
+      <c r="B33" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="73"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="62"/>
-    </row>
-    <row r="34" spans="1:8" s="22" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A34" s="26" t="s">
+      <c r="C33" s="81"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="61"/>
+    </row>
+    <row r="34" spans="1:8" s="21" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A34" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="76" t="s">
+      <c r="B34" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="77"/>
-      <c r="D34" s="78"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="86"/>
       <c r="E34" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="64">
+      <c r="F34" s="63">
         <v>2</v>
       </c>
-      <c r="G34" s="24"/>
-      <c r="H34" s="60" t="str">
+      <c r="G34" s="100"/>
+      <c r="H34" s="59" t="str">
         <f>IF(OR(ISBLANK(F34),ISBLANK(G34)), "", F34*G34)</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:8" s="22" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A35" s="26" t="s">
+    <row r="35" spans="1:8" s="21" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A35" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="76" t="s">
+      <c r="B35" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="77"/>
-      <c r="D35" s="78"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="86"/>
       <c r="E35" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="64">
+      <c r="F35" s="63">
         <v>4</v>
       </c>
-      <c r="G35" s="24"/>
-      <c r="H35" s="60" t="str">
+      <c r="G35" s="100"/>
+      <c r="H35" s="59" t="str">
         <f>IF(OR(ISBLANK(F35),ISBLANK(G35)), "", F35*G35)</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:8" s="25" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A36" s="26" t="s">
+    <row r="36" spans="1:8" s="24" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A36" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="76" t="s">
+      <c r="B36" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="77"/>
-      <c r="D36" s="78"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="86"/>
       <c r="E36" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F36" s="64">
+      <c r="F36" s="63">
         <v>3</v>
       </c>
-      <c r="G36" s="24"/>
-      <c r="H36" s="60" t="str">
+      <c r="G36" s="100"/>
+      <c r="H36" s="59" t="str">
         <f>IF(OR(ISBLANK(F36),ISBLANK(G36)), "", F36*G36)</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:8" s="22" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A37" s="23"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="84"/>
+    <row r="37" spans="1:8" s="21" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A37" s="22"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="92"/>
       <c r="E37" s="20"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="60"/>
-    </row>
-    <row r="38" spans="1:8" s="22" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A38" s="23"/>
-      <c r="B38" s="82" t="s">
+      <c r="F37" s="63"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="59"/>
+    </row>
+    <row r="38" spans="1:8" s="21" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A38" s="22"/>
+      <c r="B38" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="83"/>
-      <c r="D38" s="84"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="92"/>
       <c r="E38" s="20"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="60">
+      <c r="F38" s="63"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="59">
         <f>SUM(H34:H36)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="25" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A39" s="23"/>
-      <c r="B39" s="82" t="s">
+    <row r="39" spans="1:8" s="24" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A39" s="22"/>
+      <c r="B39" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="83"/>
-      <c r="D39" s="84"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="92"/>
       <c r="E39" s="20"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="60">
+      <c r="F39" s="63"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="59">
         <f>H38*0.08</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="25" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A40" s="23"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="84"/>
+    <row r="40" spans="1:8" s="24" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A40" s="22"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="92"/>
       <c r="E40" s="20"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="61"/>
-    </row>
-    <row r="41" spans="1:8" s="22" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A41" s="26"/>
-      <c r="B41" s="72" t="s">
+      <c r="F40" s="63"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="60"/>
+    </row>
+    <row r="41" spans="1:8" s="21" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A41" s="25"/>
+      <c r="B41" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="73"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="62">
+      <c r="C41" s="81"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="61">
         <f>H38+H39</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="22" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A42" s="26"/>
-      <c r="B42" s="75"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="74"/>
+    <row r="42" spans="1:8" s="21" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A42" s="25"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="82"/>
       <c r="E42" s="20"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="62"/>
-    </row>
-    <row r="43" spans="1:8" s="22" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A43" s="29" t="s">
+      <c r="F42" s="63"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="61"/>
+    </row>
+    <row r="43" spans="1:8" s="21" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A43" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="34"/>
-    </row>
-    <row r="44" spans="1:8" s="22" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A44" s="35"/>
-      <c r="B44" s="58" t="s">
+      <c r="B43" s="29"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="33"/>
+    </row>
+    <row r="44" spans="1:8" s="21" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A44" s="34"/>
+      <c r="B44" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="58"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="38"/>
-    </row>
-    <row r="45" spans="1:8" s="22" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A45" s="39"/>
-      <c r="B45" s="58" t="s">
+      <c r="C44" s="57"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="37"/>
+    </row>
+    <row r="45" spans="1:8" s="21" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A45" s="38"/>
+      <c r="B45" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="58"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="42"/>
-    </row>
-    <row r="46" spans="1:8" s="22" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A46" s="43"/>
-      <c r="B46" s="71" t="s">
+      <c r="C45" s="57"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="41"/>
+    </row>
+    <row r="46" spans="1:8" s="21" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A46" s="42"/>
+      <c r="B46" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="58"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="42"/>
-    </row>
-    <row r="47" spans="1:8" s="22" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A47" s="35"/>
-      <c r="B47" s="58" t="s">
+      <c r="C46" s="57"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="41"/>
+    </row>
+    <row r="47" spans="1:8" s="21" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A47" s="34"/>
+      <c r="B47" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="58"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="38"/>
-    </row>
-    <row r="48" spans="1:8" s="22" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A48" s="39"/>
-      <c r="B48" s="71" t="s">
+      <c r="C47" s="57"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="37"/>
+    </row>
+    <row r="48" spans="1:8" s="21" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A48" s="38"/>
+      <c r="B48" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="58"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="42"/>
-    </row>
-    <row r="49" spans="1:8" s="22" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A49" s="39"/>
-      <c r="B49" s="58" t="s">
+      <c r="C48" s="57"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="41"/>
+    </row>
+    <row r="49" spans="1:8" s="21" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A49" s="38"/>
+      <c r="B49" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C49" s="58"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="47"/>
-    </row>
-    <row r="50" spans="1:8" s="22" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A50" s="39"/>
-      <c r="B50" s="58" t="s">
+      <c r="C49" s="57"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="46"/>
+    </row>
+    <row r="50" spans="1:8" s="21" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A50" s="38"/>
+      <c r="B50" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C50" s="58"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="47"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="46"/>
     </row>
     <row r="51" spans="1:8" s="1" customFormat="1" ht="18.95" customHeight="1" thickBot="1">
-      <c r="A51" s="48"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="54"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="B27:D27"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B33:D33"/>
@@ -3111,6 +3113,11 @@
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B34:D34"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="B27:D27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions gridLinesSet="0"/>
